--- a/tests/AngularJSYourName.xlsx
+++ b/tests/AngularJSYourName.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\parsley\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="Session1.script.js" sheetId="7" r:id="rId1"/>
+    <sheet name="Session2.script.js" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>action</t>
   </si>
@@ -42,6 +38,9 @@
   </si>
   <si>
     <t>AngularJS.CheckYourName</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -108,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,25 +143,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,27 +159,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,80 +459,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
